--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/20.1 Análisis Horizontal  Estado Resultados.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/20.1 Análisis Horizontal  Estado Resultados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\workana\Trabajo Victor Guatemala\auditaPro\auditapro\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54539078-90A7-4613-AB2F-E4F4133C267D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94363DE7-37CF-4694-835F-490BD66325DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -734,15 +734,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -750,6 +741,15 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,11 +1315,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="65"/>
+      <c r="B2" s="70"/>
     </row>
     <row r="3" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="65"/>
+      <c r="B3" s="70"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1397,14 +1397,14 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="3"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1413,14 +1413,14 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="69" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="3"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -1429,29 +1429,28 @@
     </row>
     <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="3"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
@@ -1463,9 +1462,6 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
       <c r="I12" s="62"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1624,13 +1620,13 @@
       <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="7">
         <f>D20-C20</f>
         <v>0</v>
       </c>
-      <c r="F20" s="70" t="e">
+      <c r="F20" s="67" t="e">
         <f>E20/D20</f>
         <v>#DIV/0!</v>
       </c>
@@ -1646,14 +1642,14 @@
       <c r="B21" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
       <c r="E21" s="7">
-        <f t="shared" ref="E20:E50" si="0">D21-C21</f>
+        <f t="shared" ref="E21:E48" si="0">D21-C21</f>
         <v>0</v>
       </c>
       <c r="F21" s="9" t="e">
-        <f t="shared" ref="F20:F50" si="1">E21/D21</f>
+        <f t="shared" ref="F21:F47" si="1">E21/D21</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="5"/>
@@ -1668,8 +1664,8 @@
       <c r="B22" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
       <c r="E22" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1690,8 +1686,8 @@
       <c r="B23" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1712,8 +1708,8 @@
       <c r="B24" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="67"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1734,8 +1730,8 @@
       <c r="B25" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1756,8 +1752,8 @@
       <c r="B26" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="67"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1778,8 +1774,8 @@
       <c r="B27" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
       <c r="E27" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1800,8 +1796,8 @@
       <c r="B28" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="67"/>
-      <c r="D28" s="67"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
       <c r="E28" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1822,8 +1818,8 @@
       <c r="B29" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
       <c r="E29" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1844,8 +1840,8 @@
       <c r="B30" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="66"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1866,8 +1862,8 @@
       <c r="B31" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1888,8 +1884,8 @@
       <c r="B32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
       <c r="E32" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1910,8 +1906,8 @@
       <c r="B33" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="64"/>
       <c r="E33" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1932,8 +1928,8 @@
       <c r="B34" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="64"/>
       <c r="E34" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1954,8 +1950,8 @@
       <c r="B35" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="66"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1976,13 +1972,13 @@
       <c r="B36" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="67"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F36" s="70" t="e">
+      <c r="F36" s="67" t="e">
         <f>E36/D36</f>
         <v>#DIV/0!</v>
       </c>
@@ -1998,11 +1994,11 @@
       <c r="B37" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="67">
+      <c r="C37" s="64">
         <f>SUM(C20:C36)</f>
         <v>0</v>
       </c>
-      <c r="D37" s="67">
+      <c r="D37" s="64">
         <f>SUM(D20:D36)</f>
         <v>0</v>
       </c>
@@ -2020,10 +2016,10 @@
       <c r="B38" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="7"/>
-      <c r="F38" s="70"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
       <c r="I38" s="6"/>
@@ -2036,8 +2032,8 @@
       <c r="B39" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="68"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
       <c r="E39" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2058,8 +2054,8 @@
       <c r="B40" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="64"/>
       <c r="E40" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2080,8 +2076,8 @@
       <c r="B41" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2102,8 +2098,8 @@
       <c r="B42" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="63"/>
       <c r="E42" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2124,8 +2120,8 @@
       <c r="B43" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="69"/>
-      <c r="D43" s="69"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
       <c r="E43" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2146,8 +2142,8 @@
       <c r="B44" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C44" s="69"/>
-      <c r="D44" s="69"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
       <c r="E44" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2168,8 +2164,8 @@
       <c r="B45" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
       <c r="E45" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2190,8 +2186,8 @@
       <c r="B46" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
       <c r="E46" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2212,8 +2208,8 @@
       <c r="B47" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="69"/>
-      <c r="D47" s="69"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
       <c r="E47" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2234,13 +2230,13 @@
       <c r="B48" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="69"/>
-      <c r="D48" s="69"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
       <c r="E48" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F48" s="70" t="e">
+      <c r="F48" s="67" t="e">
         <f>E48/D48</f>
         <v>#DIV/0!</v>
       </c>
@@ -2256,11 +2252,11 @@
       <c r="B49" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="69">
+      <c r="C49" s="66">
         <f>SUM(C39:C48)</f>
         <v>0</v>
       </c>
-      <c r="D49" s="69">
+      <c r="D49" s="66">
         <f>SUM(D39:D48)</f>
         <v>0</v>
       </c>
@@ -2278,8 +2274,8 @@
       <c r="B50" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="69"/>
-      <c r="D50" s="69"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
       <c r="E50" s="7"/>
       <c r="F50" s="9"/>
       <c r="G50" s="36"/>

--- a/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/20.1 Análisis Horizontal  Estado Resultados.xlsx
+++ b/static/templates_base_interna/5 PLANEACION/2 PLAN BASADO EN RIESGOS/20.1 Análisis Horizontal  Estado Resultados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\Desarrollos-Clientes\ClienteAuditaPro1\sistema-audita\static\templates_base_interna\5 PLANEACION\2 PLAN BASADO EN RIESGOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94363DE7-37CF-4694-835F-490BD66325DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA9EACA-6268-41F8-8293-15E65E71DA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="885" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -278,7 +278,7 @@
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">Auditoríade de Procesos </t>
+    <t>Auditoría de Estados Financieros</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1298,7 @@
   <dimension ref="A2:L93"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
